--- a/data_year/zb/建筑业/工程招标代理机构.xlsx
+++ b/data_year/zb/建筑业/工程招标代理机构.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,183 +498,155 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4961</v>
+        <v>4799</v>
       </c>
       <c r="C2" t="n">
-        <v>5941997.97</v>
+        <v>7850169</v>
       </c>
       <c r="D2" t="n">
-        <v>29931</v>
+        <v>32190</v>
       </c>
       <c r="E2" t="n">
-        <v>851499.9</v>
+        <v>1408533</v>
       </c>
       <c r="F2" t="n">
-        <v>1116984</v>
+        <v>1683515</v>
       </c>
       <c r="G2" t="n">
-        <v>657220.45</v>
+        <v>951216</v>
       </c>
       <c r="H2" t="n">
-        <v>1204507.4</v>
+        <v>784036</v>
       </c>
       <c r="I2" t="n">
-        <v>61490</v>
+        <v>66350</v>
       </c>
       <c r="J2" t="n">
-        <v>290251</v>
+        <v>328168</v>
       </c>
       <c r="K2" t="n">
-        <v>31559</v>
+        <v>34160</v>
       </c>
       <c r="L2" t="n">
-        <v>9772209.82</v>
+        <v>12677469</v>
       </c>
       <c r="M2" t="n">
-        <v>157146</v>
+        <v>170167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4899</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="n">
-        <v>4998316</v>
+        <v>11044472.98</v>
       </c>
       <c r="D3" t="n">
-        <v>32380</v>
+        <v>38423</v>
       </c>
       <c r="E3" t="n">
-        <v>1042173</v>
+        <v>1520061.44</v>
       </c>
       <c r="F3" t="n">
-        <v>1423661</v>
+        <v>2301845.82</v>
       </c>
       <c r="G3" t="n">
-        <v>786440.4</v>
+        <v>1288284.77</v>
       </c>
       <c r="H3" t="n">
-        <v>1446486</v>
+        <v>965815.61</v>
       </c>
       <c r="I3" t="n">
-        <v>66013</v>
+        <v>76079</v>
       </c>
       <c r="J3" t="n">
-        <v>318093</v>
+        <v>388632</v>
       </c>
       <c r="K3" t="n">
-        <v>33633</v>
+        <v>37656</v>
       </c>
       <c r="L3" t="n">
-        <v>9697076</v>
+        <v>17120480.62</v>
       </c>
       <c r="M3" t="n">
-        <v>168896</v>
+        <v>197592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4799</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7850169</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32190</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1408533</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1683515</v>
-      </c>
-      <c r="G4" t="n">
-        <v>951216</v>
-      </c>
-      <c r="H4" t="n">
-        <v>784036</v>
-      </c>
+        <v>5522</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>66350</v>
+        <v>86263</v>
       </c>
       <c r="J4" t="n">
-        <v>328168</v>
+        <v>445445</v>
       </c>
       <c r="K4" t="n">
-        <v>34160</v>
+        <v>42831</v>
       </c>
       <c r="L4" t="n">
-        <v>12677469</v>
+        <v>21733973.73</v>
       </c>
       <c r="M4" t="n">
-        <v>170167</v>
+        <v>225681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11044472.98</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38423</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1520061.44</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2301845.82</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1288284.77</v>
-      </c>
-      <c r="H5" t="n">
-        <v>965815.61</v>
-      </c>
+        <v>5731</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>76079</v>
+        <v>93874</v>
       </c>
       <c r="J5" t="n">
-        <v>388632</v>
-      </c>
-      <c r="K5" t="n">
-        <v>37656</v>
-      </c>
+        <v>485771</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>17120480.62</v>
-      </c>
-      <c r="M5" t="n">
-        <v>197592</v>
-      </c>
+        <v>24366217.51</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5522</v>
+        <v>5950</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -683,29 +655,25 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>86263</v>
+        <v>104530</v>
       </c>
       <c r="J6" t="n">
-        <v>445445</v>
-      </c>
-      <c r="K6" t="n">
-        <v>42831</v>
-      </c>
+        <v>535322</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>21733973.73</v>
-      </c>
-      <c r="M6" t="n">
-        <v>225681</v>
-      </c>
+        <v>25305908.23</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5731</v>
+        <v>6102</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -714,25 +682,25 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>93874</v>
+        <v>112816</v>
       </c>
       <c r="J7" t="n">
-        <v>485771</v>
+        <v>549568</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>24366217.51</v>
+        <v>25627362.59</v>
       </c>
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5950</v>
+        <v>6495</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -741,25 +709,25 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>104530</v>
+        <v>130677</v>
       </c>
       <c r="J8" t="n">
-        <v>535322</v>
+        <v>581700</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>25305908.23</v>
+        <v>25441757.98</v>
       </c>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6102</v>
+        <v>6209</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -768,25 +736,25 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>112816</v>
+        <v>134303</v>
       </c>
       <c r="J9" t="n">
-        <v>549568</v>
+        <v>604173</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>25627362.59</v>
+        <v>22770879.55</v>
       </c>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6495</v>
+        <v>7717</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -795,25 +763,25 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>130677</v>
+        <v>140223</v>
       </c>
       <c r="J10" t="n">
-        <v>581700</v>
+        <v>617584</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>25441757.98</v>
+        <v>45203789.07</v>
       </c>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6209</v>
+        <v>8832</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -822,25 +790,25 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>134303</v>
+        <v>177963</v>
       </c>
       <c r="J11" t="n">
-        <v>604173</v>
+        <v>627733</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>22770879.55</v>
+        <v>41104390.124</v>
       </c>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7717</v>
+        <v>9106</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -849,70 +817,16 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>140223</v>
+        <v>183241</v>
       </c>
       <c r="J12" t="n">
-        <v>617584</v>
+        <v>620041</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>45203789.07</v>
+        <v>42753347.63</v>
       </c>
       <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8832</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>177963</v>
-      </c>
-      <c r="J13" t="n">
-        <v>627733</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>41104390.124</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9106</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>183241</v>
-      </c>
-      <c r="J14" t="n">
-        <v>620041</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>42753347.63</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
